--- a/xlsx/Slate_intext.xlsx
+++ b/xlsx/Slate_intext.xlsx
@@ -29,7 +29,7 @@
     <t>岩石</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Slate</t>
+    <t>政策_政策_维基百科_Slate</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E8%B4%A8%E5%B2%A9</t>
